--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId1"/>
     <sheet name="Measurements" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -33,12 +33,6 @@
     <t>c830f4e</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial </t>
   </si>
   <si>
@@ -56,6 +50,12 @@
   </si>
   <si>
     <t>Compressions time (s)</t>
+  </si>
+  <si>
+    <t>Mean (s)</t>
+  </si>
+  <si>
+    <t>SEM (s)</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -442,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -450,7 +452,7 @@
     </row>
     <row r="3" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -477,12 +479,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -490,7 +492,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>18.100000000000001</v>
@@ -543,7 +545,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B3:B12)</f>
@@ -552,7 +554,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <f>_xlfn.STDEV.S(B3:B12)/SQRT(COUNT(B3:B12))</f>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Description" sheetId="2" r:id="rId1"/>
     <sheet name="Measurements" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Title</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>SEM (s)</t>
+  </si>
+  <si>
+    <t>BLAS (matric multiplication)</t>
   </si>
 </sst>
 </file>
@@ -63,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,12 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -116,6 +119,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,27 +475,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -490,60 +514,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="6">
+        <v>2.395346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="6">
+        <v>2.5627239999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="6">
+        <v>2.484648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <v>2.4730240000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="6">
+        <v>2.4989300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="6">
+        <v>2.447298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>22.572875</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="6">
+        <v>2.5667119999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>20.902004000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="6">
+        <v>2.4925929999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>21.284306000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <v>2.4574440000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <v>2.566808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -551,14 +608,22 @@
         <f>AVERAGE(B3:B12)</f>
         <v>19.695918499999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="6">
+        <f>AVERAGE(C3:C12)</f>
+        <v>2.4945526999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2">
         <f>_xlfn.STDEV.S(B3:B12)/SQRT(COUNT(B3:B12))</f>
         <v>0.53725726608864954</v>
+      </c>
+      <c r="C15" s="6">
+        <f>_xlfn.STDEV.S(C3:C12)/SQRT(COUNT(C3:C12))</f>
+        <v>1.798509873821472E-2</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Title</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>BLAS (matric multiplication)</t>
+  </si>
+  <si>
+    <t>219da9c</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,7 +491,7 @@
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -513,6 +516,15 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -58,10 +58,10 @@
     <t>SEM (s)</t>
   </si>
   <si>
-    <t>BLAS (matric multiplication)</t>
-  </si>
-  <si>
     <t>219da9c</t>
+  </si>
+  <si>
+    <t>BLAS (matrix multiplication)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Title</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>BLAS (matrix multiplication)</t>
+  </si>
+  <si>
+    <t>c5b91b8</t>
+  </si>
+  <si>
+    <t>BLAS optimize gramian</t>
+  </si>
+  <si>
+    <t>Speedup factor relative to initial</t>
   </si>
 </sst>
 </file>
@@ -108,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +141,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +503,7 @@
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -501,7 +513,9 @@
       <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -519,7 +533,9 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -536,6 +552,9 @@
       <c r="C3" s="6">
         <v>2.395346</v>
       </c>
+      <c r="D3" s="6">
+        <v>2.2345250000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -544,6 +563,9 @@
       <c r="C4" s="6">
         <v>2.5627239999999998</v>
       </c>
+      <c r="D4" s="6">
+        <v>2.2342379999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -552,6 +574,9 @@
       <c r="C5" s="6">
         <v>2.484648</v>
       </c>
+      <c r="D5" s="6">
+        <v>2.3046340000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -560,6 +585,9 @@
       <c r="C6" s="6">
         <v>2.4730240000000001</v>
       </c>
+      <c r="D6" s="6">
+        <v>2.29678</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -568,6 +596,9 @@
       <c r="C7" s="6">
         <v>2.4989300000000001</v>
       </c>
+      <c r="D7" s="6">
+        <v>2.2663720000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -576,6 +607,9 @@
       <c r="C8" s="6">
         <v>2.447298</v>
       </c>
+      <c r="D8" s="6">
+        <v>2.4376030000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -584,6 +618,9 @@
       <c r="C9" s="6">
         <v>2.5667119999999999</v>
       </c>
+      <c r="D9" s="6">
+        <v>2.3551160000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -592,6 +629,9 @@
       <c r="C10" s="6">
         <v>2.4925929999999998</v>
       </c>
+      <c r="D10" s="6">
+        <v>2.2941929999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -600,6 +640,9 @@
       <c r="C11" s="6">
         <v>2.4574440000000002</v>
       </c>
+      <c r="D11" s="6">
+        <v>2.1960130000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -608,9 +651,13 @@
       <c r="C12" s="6">
         <v>2.566808</v>
       </c>
+      <c r="D12" s="6">
+        <v>2.2377750000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -624,6 +671,10 @@
         <f>AVERAGE(C3:C12)</f>
         <v>2.4945526999999998</v>
       </c>
+      <c r="D14" s="6">
+        <f>AVERAGE(D3:D12)</f>
+        <v>2.2857248999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -636,6 +687,23 @@
       <c r="C15" s="6">
         <f>_xlfn.STDEV.S(C3:C12)/SQRT(COUNT(C3:C12))</f>
         <v>1.798509873821472E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <f>_xlfn.STDEV.S(D3:D12)/SQRT(COUNT(D3:D12))</f>
+        <v>2.2218071552704829E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B14/C14</f>
+        <v>7.8955712180384081</v>
+      </c>
+      <c r="D16" s="2">
+        <f>B14/D14</f>
+        <v>8.6169243289076469</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Title</t>
   </si>
@@ -61,9 +61,6 @@
     <t>219da9c</t>
   </si>
   <si>
-    <t>BLAS (matrix multiplication)</t>
-  </si>
-  <si>
     <t>c5b91b8</t>
   </si>
   <si>
@@ -71,6 +68,18 @@
   </si>
   <si>
     <t>Speedup factor relative to initial</t>
+  </si>
+  <si>
+    <t>77594da</t>
+  </si>
+  <si>
+    <t>BLAS multiply matrix with a vector</t>
+  </si>
+  <si>
+    <t>Speedup factor relative to previous</t>
+  </si>
+  <si>
+    <t>BLAS matrix multiplication</t>
   </si>
 </sst>
 </file>
@@ -490,20 +499,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -511,12 +521,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -534,9 +546,11 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -555,6 +569,9 @@
       <c r="D3" s="6">
         <v>2.2345250000000001</v>
       </c>
+      <c r="E3">
+        <v>2.3769640000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -566,6 +583,9 @@
       <c r="D4" s="6">
         <v>2.2342379999999999</v>
       </c>
+      <c r="E4">
+        <v>2.031304</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -577,6 +597,9 @@
       <c r="D5" s="6">
         <v>2.3046340000000001</v>
       </c>
+      <c r="E5">
+        <v>2.1102750000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -588,6 +611,9 @@
       <c r="D6" s="6">
         <v>2.29678</v>
       </c>
+      <c r="E6">
+        <v>2.008524</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -599,6 +625,9 @@
       <c r="D7" s="6">
         <v>2.2663720000000001</v>
       </c>
+      <c r="E7">
+        <v>2.2612480000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -610,6 +639,9 @@
       <c r="D8" s="6">
         <v>2.4376030000000002</v>
       </c>
+      <c r="E8">
+        <v>2.1493570000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -621,6 +653,9 @@
       <c r="D9" s="6">
         <v>2.3551160000000002</v>
       </c>
+      <c r="E9">
+        <v>2.1208520000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -632,6 +667,9 @@
       <c r="D10" s="6">
         <v>2.2941929999999999</v>
       </c>
+      <c r="E10">
+        <v>1.9968269999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -643,6 +681,9 @@
       <c r="D11" s="6">
         <v>2.1960130000000002</v>
       </c>
+      <c r="E11">
+        <v>2.1428210000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -654,6 +695,9 @@
       <c r="D12" s="6">
         <v>2.2377750000000001</v>
       </c>
+      <c r="E12">
+        <v>2.0271119999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
@@ -675,6 +719,10 @@
         <f>AVERAGE(D3:D12)</f>
         <v>2.2857248999999999</v>
       </c>
+      <c r="E14" s="6">
+        <f>AVERAGE(E3:E12)</f>
+        <v>2.1225283999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -692,18 +740,44 @@
         <f>_xlfn.STDEV.S(D3:D12)/SQRT(COUNT(D3:D12))</f>
         <v>2.2218071552704829E-2</v>
       </c>
+      <c r="E15" s="6">
+        <f>_xlfn.STDEV.S(E3:E12)/SQRT(COUNT(E3:E12))</f>
+        <v>3.8222905758836426E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2">
         <f>B14/C14</f>
         <v>7.8955712180384081</v>
       </c>
       <c r="D16" s="2">
-        <f>B14/D14</f>
+        <f>C14/D14</f>
+        <v>1.091361738238928</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D14/E14</f>
+        <v>1.0768877815722042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <f>$B$14/C14</f>
+        <v>7.8955712180384081</v>
+      </c>
+      <c r="D17" s="2">
+        <f>$B$14/D14</f>
         <v>8.6169243289076469</v>
+      </c>
+      <c r="E17" s="2">
+        <f>$B$14/E14</f>
+        <v>9.2794605245329116</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>BLAS matrix multiplication</t>
+  </si>
+  <si>
+    <t>934ce47</t>
+  </si>
+  <si>
+    <t>BLAS optimize matrix vector multiplication with gramian (use symmetric functions)</t>
   </si>
 </sst>
 </file>
@@ -501,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,9 +517,10 @@
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -529,7 +536,9 @@
       <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -551,7 +560,9 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -572,6 +583,9 @@
       <c r="E3">
         <v>2.3769640000000001</v>
       </c>
+      <c r="F3">
+        <v>1.6316999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -586,6 +600,9 @@
       <c r="E4">
         <v>2.031304</v>
       </c>
+      <c r="F4">
+        <v>1.5724940000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -600,6 +617,9 @@
       <c r="E5">
         <v>2.1102750000000001</v>
       </c>
+      <c r="F5">
+        <v>1.5488200000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -614,6 +634,9 @@
       <c r="E6">
         <v>2.008524</v>
       </c>
+      <c r="F6">
+        <v>1.70242</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -628,6 +651,9 @@
       <c r="E7">
         <v>2.2612480000000001</v>
       </c>
+      <c r="F7">
+        <v>1.545174</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -642,6 +668,9 @@
       <c r="E8">
         <v>2.1493570000000002</v>
       </c>
+      <c r="F8">
+        <v>1.631364</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -656,6 +685,9 @@
       <c r="E9">
         <v>2.1208520000000002</v>
       </c>
+      <c r="F9">
+        <v>1.601618</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -670,6 +702,9 @@
       <c r="E10">
         <v>1.9968269999999999</v>
       </c>
+      <c r="F10">
+        <v>1.574503</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -684,6 +719,9 @@
       <c r="E11">
         <v>2.1428210000000001</v>
       </c>
+      <c r="F11">
+        <v>1.631643</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -698,6 +736,9 @@
       <c r="E12">
         <v>2.0271119999999998</v>
       </c>
+      <c r="F12">
+        <v>1.6649449999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
@@ -723,6 +764,10 @@
         <f>AVERAGE(E3:E12)</f>
         <v>2.1225283999999998</v>
       </c>
+      <c r="F14" s="6">
+        <f>AVERAGE(F3:F12)</f>
+        <v>1.6104680999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -743,6 +788,10 @@
       <c r="E15" s="6">
         <f>_xlfn.STDEV.S(E3:E12)/SQRT(COUNT(E3:E12))</f>
         <v>3.8222905758836426E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>_xlfn.STDEV.S(F3:F12)/SQRT(COUNT(F3:F12))</f>
+        <v>1.6205741725594244E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -762,8 +811,12 @@
         <f>D14/E14</f>
         <v>1.0768877815722042</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <f>E14/F14</f>
+        <v>1.3179574311344633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -778,6 +831,10 @@
       <c r="E17" s="2">
         <f>$B$14/E14</f>
         <v>9.2794605245329116</v>
+      </c>
+      <c r="F17" s="2">
+        <f>$B$14/F14</f>
+        <v>12.229933955227054</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -85,7 +85,13 @@
     <t>934ce47</t>
   </si>
   <si>
-    <t>BLAS optimize matrix vector multiplication with gramian (use symmetric functions)</t>
+    <t>BLAS optimize matrix-vector multiplication with gramian (use symmetric functions)</t>
+  </si>
+  <si>
+    <t>BLAS optimize matrix-scalar multiplication</t>
+  </si>
+  <si>
+    <t>3d3da72</t>
   </si>
 </sst>
 </file>
@@ -507,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="176" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,6 +524,7 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -539,7 +546,9 @@
       <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -563,7 +572,9 @@
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
@@ -586,6 +597,9 @@
       <c r="F3">
         <v>1.6316999999999999</v>
       </c>
+      <c r="G3">
+        <v>1.494346</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -603,6 +617,9 @@
       <c r="F4">
         <v>1.5724940000000001</v>
       </c>
+      <c r="G4">
+        <v>1.41788</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -620,6 +637,9 @@
       <c r="F5">
         <v>1.5488200000000001</v>
       </c>
+      <c r="G5">
+        <v>1.3958900000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -637,6 +657,9 @@
       <c r="F6">
         <v>1.70242</v>
       </c>
+      <c r="G6">
+        <v>1.395159</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -654,6 +677,9 @@
       <c r="F7">
         <v>1.545174</v>
       </c>
+      <c r="G7">
+        <v>1.4797180000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -671,6 +697,9 @@
       <c r="F8">
         <v>1.631364</v>
       </c>
+      <c r="G8">
+        <v>1.3923639999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -688,6 +717,9 @@
       <c r="F9">
         <v>1.601618</v>
       </c>
+      <c r="G9">
+        <v>1.4760949999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -705,6 +737,9 @@
       <c r="F10">
         <v>1.574503</v>
       </c>
+      <c r="G10">
+        <v>1.4029929999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -722,6 +757,9 @@
       <c r="F11">
         <v>1.631643</v>
       </c>
+      <c r="G11">
+        <v>1.4135070000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -739,6 +777,9 @@
       <c r="F12">
         <v>1.6649449999999999</v>
       </c>
+      <c r="G12">
+        <v>1.4011260000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
@@ -768,6 +809,10 @@
         <f>AVERAGE(F3:F12)</f>
         <v>1.6104680999999998</v>
       </c>
+      <c r="G14" s="6">
+        <f>AVERAGE(G3:G12)</f>
+        <v>1.4269078000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -792,6 +837,10 @@
       <c r="F15" s="6">
         <f>_xlfn.STDEV.S(F3:F12)/SQRT(COUNT(F3:F12))</f>
         <v>1.6205741725594244E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <f>_xlfn.STDEV.S(G3:G12)/SQRT(COUNT(G3:G12))</f>
+        <v>1.2656695420738117E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -815,8 +864,12 @@
         <f>E14/F14</f>
         <v>1.3179574311344633</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <f>F14/G14</f>
+        <v>1.1286420187765458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -835,6 +888,10 @@
       <c r="F17" s="2">
         <f>$B$14/F14</f>
         <v>12.229933955227054</v>
+      </c>
+      <c r="G17" s="2">
+        <f>$B$14/G14</f>
+        <v>13.803217348731287</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>3d3da72</t>
+  </si>
+  <si>
+    <t>BLAS optimize matrix-vector multiplication (multiply with scalar in one operation)</t>
+  </si>
+  <si>
+    <t>d3226b2</t>
   </si>
 </sst>
 </file>
@@ -513,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="176" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +531,7 @@
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -549,7 +556,9 @@
       <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
@@ -575,7 +584,9 @@
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -600,6 +611,9 @@
       <c r="G3">
         <v>1.494346</v>
       </c>
+      <c r="H3">
+        <v>1.498405</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -620,6 +634,9 @@
       <c r="G4">
         <v>1.41788</v>
       </c>
+      <c r="H4">
+        <v>1.4025589999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -640,6 +657,9 @@
       <c r="G5">
         <v>1.3958900000000001</v>
       </c>
+      <c r="H5">
+        <v>1.3891290000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -660,6 +680,9 @@
       <c r="G6">
         <v>1.395159</v>
       </c>
+      <c r="H6">
+        <v>1.4478230000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -680,6 +703,9 @@
       <c r="G7">
         <v>1.4797180000000001</v>
       </c>
+      <c r="H7">
+        <v>1.406212</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -700,6 +726,9 @@
       <c r="G8">
         <v>1.3923639999999999</v>
       </c>
+      <c r="H8">
+        <v>1.402091</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -720,6 +749,9 @@
       <c r="G9">
         <v>1.4760949999999999</v>
       </c>
+      <c r="H9">
+        <v>1.387365</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -740,6 +772,9 @@
       <c r="G10">
         <v>1.4029929999999999</v>
       </c>
+      <c r="H10">
+        <v>1.488218</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -760,6 +795,9 @@
       <c r="G11">
         <v>1.4135070000000001</v>
       </c>
+      <c r="H11">
+        <v>1.406965</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -780,6 +818,9 @@
       <c r="G12">
         <v>1.4011260000000001</v>
       </c>
+      <c r="H12">
+        <v>1.393254</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
@@ -813,6 +854,10 @@
         <f>AVERAGE(G3:G12)</f>
         <v>1.4269078000000002</v>
       </c>
+      <c r="H14" s="6">
+        <f>AVERAGE(H3:H12)</f>
+        <v>1.4222021</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -841,6 +886,10 @@
       <c r="G15" s="6">
         <f>_xlfn.STDEV.S(G3:G12)/SQRT(COUNT(G3:G12))</f>
         <v>1.2656695420738117E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <f>_xlfn.STDEV.S(H3:H12)/SQRT(COUNT(H3:H12))</f>
+        <v>1.3014956245668549E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -868,8 +917,12 @@
         <f>F14/G14</f>
         <v>1.1286420187765458</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H16" s="2">
+        <f>G14/H14</f>
+        <v>1.0033087421260314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -892,6 +945,10 @@
       <c r="G17" s="2">
         <f>$B$14/G14</f>
         <v>13.803217348731287</v>
+      </c>
+      <c r="H17" s="2">
+        <f>$B$14/H14</f>
+        <v>13.848888635447802</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -73,9 +73,6 @@
     <t>77594da</t>
   </si>
   <si>
-    <t>BLAS multiply matrix with a vector</t>
-  </si>
-  <si>
     <t>Speedup factor relative to previous</t>
   </si>
   <si>
@@ -85,19 +82,25 @@
     <t>934ce47</t>
   </si>
   <si>
-    <t>BLAS optimize matrix-vector multiplication with gramian (use symmetric functions)</t>
-  </si>
-  <si>
-    <t>BLAS optimize matrix-scalar multiplication</t>
-  </si>
-  <si>
     <t>3d3da72</t>
   </si>
   <si>
-    <t>BLAS optimize matrix-vector multiplication (multiply with scalar in one operation)</t>
-  </si>
-  <si>
     <t>d3226b2</t>
+  </si>
+  <si>
+    <t>Optimize mutiplication of vector with a transposed vector</t>
+  </si>
+  <si>
+    <t>Optimize matrix-vector multiplication (multiply with scalar in one operation)</t>
+  </si>
+  <si>
+    <t>Optimize matrix-scalar multiplication</t>
+  </si>
+  <si>
+    <t>Optimize matrix-vector multiplication with gramian (use symmetric functions)</t>
+  </si>
+  <si>
+    <t>Optimize matrix-vector multiplication</t>
   </si>
 </sst>
 </file>
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="176" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,13 +531,13 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -542,24 +545,26 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -579,15 +584,17 @@
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="I2" s="4">
+        <v>686576</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -602,17 +609,20 @@
       <c r="D3" s="6">
         <v>2.2345250000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>2.3769640000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>1.6316999999999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>1.494346</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>1.498405</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.3208930000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -625,17 +635,20 @@
       <c r="D4" s="6">
         <v>2.2342379999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>2.031304</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1.5724940000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>1.41788</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>1.4025589999999999</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.3004560000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -648,17 +661,20 @@
       <c r="D5" s="6">
         <v>2.3046340000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>2.1102750000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>1.5488200000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>1.3958900000000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>1.3891290000000001</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.3263499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -671,17 +687,20 @@
       <c r="D6" s="6">
         <v>2.29678</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>2.008524</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>1.70242</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>1.395159</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>1.4478230000000001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.3069580000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -694,17 +713,20 @@
       <c r="D7" s="6">
         <v>2.2663720000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2.2612480000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>1.545174</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>1.4797180000000001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>1.406212</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.224613</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -717,17 +739,20 @@
       <c r="D8" s="6">
         <v>2.4376030000000002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>2.1493570000000002</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>1.631364</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>1.3923639999999999</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>1.402091</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.249007</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -740,17 +765,20 @@
       <c r="D9" s="6">
         <v>2.3551160000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>2.1208520000000002</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>1.601618</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>1.4760949999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>1.387365</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.2050160000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -763,17 +791,20 @@
       <c r="D10" s="6">
         <v>2.2941929999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>1.9968269999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>1.574503</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>1.4029929999999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>1.488218</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.3269249999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -786,17 +817,20 @@
       <c r="D11" s="6">
         <v>2.1960130000000002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>2.1428210000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>1.631643</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>1.4135070000000001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>1.406965</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.2444280000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -809,17 +843,20 @@
       <c r="D12" s="6">
         <v>2.2377750000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>2.0271119999999998</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>1.6649449999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>1.4011260000000001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>1.393254</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.311685</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -858,6 +895,10 @@
         <f>AVERAGE(H3:H12)</f>
         <v>1.4222021</v>
       </c>
+      <c r="I14" s="6">
+        <f>AVERAGE(I3:I12)</f>
+        <v>1.2816330999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -891,10 +932,14 @@
         <f>_xlfn.STDEV.S(H3:H12)/SQRT(COUNT(H3:H12))</f>
         <v>1.3014956245668549E-2</v>
       </c>
+      <c r="I15" s="6">
+        <f>_xlfn.STDEV.S(I3:I12)/SQRT(COUNT(I3:I12))</f>
+        <v>1.4553052219341779E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
@@ -921,8 +966,12 @@
         <f>G14/H14</f>
         <v>1.0033087421260314</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <f>H14/I14</f>
+        <v>1.1096795955098226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -949,6 +998,10 @@
       <c r="H17" s="2">
         <f>$B$14/H14</f>
         <v>13.848888635447802</v>
+      </c>
+      <c r="I17" s="2">
+        <f>$B$14/I14</f>
+        <v>15.367829139244296</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Optimize matrix-vector multiplication</t>
+  </si>
+  <si>
+    <t>b9ad591</t>
+  </si>
+  <si>
+    <t>Optimize mutiplication of vector with a transposed vector (additional)</t>
   </si>
 </sst>
 </file>
@@ -522,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="176" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,6 +541,7 @@
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
@@ -565,7 +572,9 @@
       <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -595,6 +604,9 @@
       <c r="I2" s="4">
         <v>686576</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -624,6 +636,9 @@
       <c r="I3" s="6">
         <v>1.3208930000000001</v>
       </c>
+      <c r="J3" s="6">
+        <v>1.1774899999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -650,6 +665,9 @@
       <c r="I4" s="6">
         <v>1.3004560000000001</v>
       </c>
+      <c r="J4" s="6">
+        <v>1.1431420000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -676,6 +694,9 @@
       <c r="I5" s="6">
         <v>1.3263499999999999</v>
       </c>
+      <c r="J5" s="6">
+        <v>1.1143369999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -702,6 +723,9 @@
       <c r="I6" s="6">
         <v>1.3069580000000001</v>
       </c>
+      <c r="J6" s="6">
+        <v>1.1846749999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -728,6 +752,9 @@
       <c r="I7" s="6">
         <v>1.224613</v>
       </c>
+      <c r="J7" s="6">
+        <v>1.1104270000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -754,6 +781,9 @@
       <c r="I8" s="6">
         <v>1.249007</v>
       </c>
+      <c r="J8" s="6">
+        <v>1.12297</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -780,6 +810,9 @@
       <c r="I9" s="6">
         <v>1.2050160000000001</v>
       </c>
+      <c r="J9" s="6">
+        <v>1.1098870000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -806,6 +839,9 @@
       <c r="I10" s="6">
         <v>1.3269249999999999</v>
       </c>
+      <c r="J10" s="6">
+        <v>1.179263</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -832,6 +868,9 @@
       <c r="I11" s="6">
         <v>1.2444280000000001</v>
       </c>
+      <c r="J11" s="6">
+        <v>1.0704750000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -858,6 +897,9 @@
       <c r="I12" s="6">
         <v>1.311685</v>
       </c>
+      <c r="J12" s="6">
+        <v>1.125057</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="6"/>
@@ -899,6 +941,10 @@
         <f>AVERAGE(I3:I12)</f>
         <v>1.2816330999999999</v>
       </c>
+      <c r="J14" s="6">
+        <f>AVERAGE(J3:J12)</f>
+        <v>1.1337723</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -935,6 +981,10 @@
       <c r="I15" s="6">
         <f>_xlfn.STDEV.S(I3:I12)/SQRT(COUNT(I3:I12))</f>
         <v>1.4553052219341779E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <f>_xlfn.STDEV.S(J3:J12)/SQRT(COUNT(J3:J12))</f>
+        <v>1.1715115130130899E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -970,8 +1020,12 @@
         <f>H14/I14</f>
         <v>1.1096795955098226</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="J16" s="2">
+        <f>I14/J14</f>
+        <v>1.130414899005735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -1002,6 +1056,10 @@
       <c r="I17" s="2">
         <f>$B$14/I14</f>
         <v>15.367829139244296</v>
+      </c>
+      <c r="J17" s="2">
+        <f>$B$14/J14</f>
+        <v>17.372023024376233</v>
       </c>
     </row>
   </sheetData>
